--- a/lib/DAL/cPay.xlsx
+++ b/lib/DAL/cPay.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\徐磊\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\4learning-space\2、typescript学习\practice03\cpay\lib\DAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC45EB0-95F2-48B7-9F9F-F17A606CF13A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9980BD3B-EF25-4563-A870-3216FFCD12BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{CA716A67-13CD-42D9-AE3B-1DECD543BDA6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="224">
   <si>
     <t>必填</t>
   </si>
@@ -678,10 +678,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>随机字符串，长度要求在32位以内。推荐随机数生成算法</t>
   </si>
   <si>
@@ -726,95 +722,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">DROP TABLE IF EXISTS 't_cPay_config'; _x000D_
-CREATE TABLE 't_cPay_config' ( _x000D_
-'字段名' 必填 NULL COMMENT '长度',_x000D_
-'facid' 是 NULL COMMENT '32',_x000D_
-'appid' 是 NULL COMMENT '32',_x000D_
-'mch_id' 是 NULL COMMENT '32',_x000D_
-'mch_key' 是 NULL COMMENT '32',_x000D_
-'app_secert' 是 NULL COMMENT '32',_x000D_
-'ssl_cert_path' 是 NULL COMMENT '500',_x000D_
-'ssl_cert_password' 是 NULL COMMENT '32',_x000D_
-'notify_url' 是 NULL COMMENT '500',_x000D_
-'ip' 否 NULL COMMENT '32',_x000D_
-'redirect_url' 是 NULL COMMENT '500',_x000D_
-'create_time' 是 NULL COMMENT '0',_x000D_
-'delete_flag' 是 NULL COMMENT '1',_x000D_
-'token' 否 NULL COMMENT '32',_x000D_
-PRIMARY KEY ('id')_x000D_
-);_x000D_
------创建表 t_cPay_config 成功_x000D_
-_x000D_
-DROP TABLE IF EXISTS 't_cPay_order'; _x000D_
-CREATE TABLE 't_cPay_order' ( _x000D_
-'字段名' 必填 NULL COMMENT '长度',_x000D_
-'facid' 是 NULL COMMENT '32',_x000D_
-'out_trade_no' 是 NULL COMMENT '32',_x000D_
-'transaction_id' 否 NULL COMMENT '32',_x000D_
-'body' 否 NULL COMMENT '128',_x000D_
-'detail' 否 NULL COMMENT '6000',_x000D_
-'attach' 否 NULL COMMENT '127',_x000D_
-'fee_type' 否 NULL COMMENT '16',_x000D_
-'total_fee' 是 NULL COMMENT '0',_x000D_
-'goods_tag' 否 NULL COMMENT '32',_x000D_
-'trade_type' 是 NULL COMMENT '16',_x000D_
-'product_id' 否 NULL COMMENT '32',_x000D_
-'openid' 否 NULL COMMENT '128',_x000D_
-'return_code' 否 NULL COMMENT '16',_x000D_
-'return_msg' 否 NULL COMMENT '128',_x000D_
-'result_code' 否 NULL COMMENT '16',_x000D_
-'err_code' 否 NULL COMMENT '32',_x000D_
-'err_code_des' 否 NULL COMMENT '128',_x000D_
-'create_time' 是 NULL COMMENT '0',_x000D_
-'delete_flag' 是 NULL COMMENT '1',_x000D_
-PRIMARY KEY ('id')_x000D_
-);_x000D_
------创建表 t_cPay_order 成功_x000D_
-_x000D_
-DROP TABLE IF EXISTS 't_cPay_order_detail'; _x000D_
-CREATE TABLE 't_cPay_order_detail' ( _x000D_
-'字段名' 必填 NULL COMMENT '长度',_x000D_
-'facid' 是 NULL COMMENT '32',_x000D_
-'appid' 是 NULL COMMENT '32',_x000D_
-'mch_id' 是 NULL COMMENT '32',_x000D_
-'out_trade_no' 是 NULL COMMENT '32',_x000D_
-'transaction_id' 否 NULL COMMENT '32',_x000D_
-'device_info' 否 NULL COMMENT '32',_x000D_
-'nonce_str' 是 NULL COMMENT '32',_x000D_
-'sign' 是 NULL COMMENT '32',_x000D_
-'sign_type' 否 NULL COMMENT '32',_x000D_
-'body' 是 NULL COMMENT '128',_x000D_
-'detail' 否 NULL COMMENT '6000',_x000D_
-'attach' 否 NULL COMMENT '127',_x000D_
-'fee_type' 否 NULL COMMENT '16',_x000D_
-'total_fee' 是 NULL COMMENT '0',_x000D_
-'spbill_create_ip' 是 NULL COMMENT '64',_x000D_
-'time_start' 否 NULL COMMENT '14',_x000D_
-'time_expire' 否 NULL COMMENT '14',_x000D_
-'goods_tag' 否 NULL COMMENT '32',_x000D_
-'notify_url' 否 NULL COMMENT '',_x000D_
-'trade_type' 是 NULL COMMENT '16',_x000D_
-'product_id' 否 NULL COMMENT '32',_x000D_
-'limit_pay' 否 NULL COMMENT '32',_x000D_
-'openid' 否 NULL COMMENT '128',_x000D_
-'receipt' 否 NULL COMMENT '8',_x000D_
-'scene_info' 否 NULL COMMENT '256',_x000D_
-'return_code' 否 NULL COMMENT '16',_x000D_
-'return_msg' 否 NULL COMMENT '128',_x000D_
-'result_code' 否 NULL COMMENT '16',_x000D_
-'err_code' 否 NULL COMMENT '32',_x000D_
-'err_code_des' 否 NULL COMMENT '128',_x000D_
-'create_time' 是 NULL COMMENT '0',_x000D_
-'delete_flag' 是 NULL COMMENT '1',_x000D_
-PRIMARY KEY ('id')_x000D_
-);_x000D_
------创建表 t_cPay_order_detail 成功_x000D_
-_x000D_
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>body</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -849,6 +756,172 @@
   <si>
     <t>openid</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CURRENT_TIMESTAMP </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_cPay_order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_cPay_order_detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP TABLE IF EXISTS `t_cPay_config`;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TABLE `t_cPay_config` (  </t>
+  </si>
+  <si>
+    <t>`facid` varchar(32) NOT NULL COMMENT `厂家编号',</t>
+  </si>
+  <si>
+    <t>`appid` varchar(32) NOT NULL COMMENT `公众账号ID',</t>
+  </si>
+  <si>
+    <t>`mch_id` varchar(32) NOT NULL COMMENT `商户号',</t>
+  </si>
+  <si>
+    <t>`mch_key` varchar(32) NOT NULL COMMENT `商户支付密钥',</t>
+  </si>
+  <si>
+    <t>`app_secert` varchar(32) NOT NULL COMMENT `公众帐号secert',</t>
+  </si>
+  <si>
+    <t>`ssl_cert_path` varchar(500) NOT NULL COMMENT `证书路径',</t>
+  </si>
+  <si>
+    <t>`ssl_cert_password` varchar(32) NOT NULL COMMENT `证书密码',</t>
+  </si>
+  <si>
+    <t>`notify_url` varchar(500) NOT NULL COMMENT `回调URL',</t>
+  </si>
+  <si>
+    <t>`ip` varchar(32)  NULL COMMENT `商户系统后台机器IP',</t>
+  </si>
+  <si>
+    <t>`redirect_url` varchar(500) NOT NULL COMMENT `公众号回调地址',</t>
+  </si>
+  <si>
+    <t>`create_time` varchar(0) NOT NULL COMMENT `创建时间',</t>
+  </si>
+  <si>
+    <t>`delete_flag` varchar(1) NOT NULL COMMENT `删除标识',</t>
+  </si>
+  <si>
+    <t>`token` varchar(32)  NULL COMMENT `token'）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP TABLE IF EXISTS `t_cPay_order`;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TABLE `t_cPay_order` (  </t>
+  </si>
+  <si>
+    <t>`out_trade_no` varchar(32) NOT NULL COMMENT `商户订单号',</t>
+  </si>
+  <si>
+    <t>`transaction_id` varchar(32)  NULL COMMENT `微信订单号',</t>
+  </si>
+  <si>
+    <t>`body` varchar(128)  NULL COMMENT `商品描述',</t>
+  </si>
+  <si>
+    <t>`detail` varchar(6000)  NULL COMMENT `商品详情',</t>
+  </si>
+  <si>
+    <t>`attach` varchar(127)  NULL COMMENT `附加数据',</t>
+  </si>
+  <si>
+    <t>`fee_type` varchar(16)  NULL COMMENT `标价币种',</t>
+  </si>
+  <si>
+    <t>`total_fee` varchar(0) NOT NULL COMMENT `标价金额',</t>
+  </si>
+  <si>
+    <t>`goods_tag` varchar(32)  NULL COMMENT `订单优惠标记',</t>
+  </si>
+  <si>
+    <t>`trade_type` varchar(16) NOT NULL COMMENT `交易类型',</t>
+  </si>
+  <si>
+    <t>`product_id` varchar(32)  NULL COMMENT `商品ID',</t>
+  </si>
+  <si>
+    <t>`openid` varchar(128)  NULL COMMENT `用户标识',</t>
+  </si>
+  <si>
+    <t>`return_code` varchar(16)  NULL COMMENT `返回状态码',</t>
+  </si>
+  <si>
+    <t>`return_msg` varchar(128)  NULL COMMENT `返回信息',</t>
+  </si>
+  <si>
+    <t>`result_code` varchar(16)  NULL COMMENT `业务结果',</t>
+  </si>
+  <si>
+    <t>`err_code` varchar(32)  NULL COMMENT `错误代码',</t>
+  </si>
+  <si>
+    <t>`err_code_des` varchar(128)  NULL COMMENT `错误代码描述',</t>
+  </si>
+  <si>
+    <t>`delete_flag` varchar(1) NOT NULL COMMENT `删除标识'）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP TABLE IF EXISTS `t_cPay_order_detail`;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TABLE `t_cPay_order_detail` (  </t>
+  </si>
+  <si>
+    <t>`nonce_str` varchar(32) NOT NULL COMMENT `随机字符串',</t>
+  </si>
+  <si>
+    <t>`body` varchar(128) NOT NULL COMMENT `商品描述',</t>
+  </si>
+  <si>
+    <t>`time_start` varchar(14)  NULL COMMENT `交易起始时间',</t>
+  </si>
+  <si>
+    <t>`notify_url` varchar()  NULL COMMENT `通知地址',</t>
+  </si>
+  <si>
+    <t>`limit_pay` varchar(32)  NULL COMMENT `指定支付方式',</t>
+  </si>
+  <si>
+    <t>`scene_info` varchar(256)  NULL COMMENT `场景信息',</t>
+  </si>
+  <si>
+    <t>`device_info` varchar(32)  NULL COMMENT `设备号',</t>
+  </si>
+  <si>
+    <t>`sign` varchar(32) NOT NULL COMMENT `签名',</t>
+  </si>
+  <si>
+    <t>`sign_type` varchar(32)  NULL COMMENT `签名类型',</t>
+  </si>
+  <si>
+    <t>`spbill_create_ip` varchar(64) NOT NULL COMMENT `终端IP',</t>
+  </si>
+  <si>
+    <t>`time_expire` varchar(14)  NULL COMMENT `交易结束时间',</t>
+  </si>
+  <si>
+    <t>`receipt` varchar(8)  NULL COMMENT `电子发票入口开放标识',</t>
   </si>
 </sst>
 </file>
@@ -1005,15 +1078,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1082,7 +1149,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1093,7 +1160,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1412,19 +1488,365 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD433A89-1CC8-4B91-BE5A-74EF960ACD4E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:A72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>163</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="30" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1437,361 +1859,382 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC6D3D5-20F0-4058-8BF6-1B02F17BA069}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H2" sqref="H2:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="5.875" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="8" max="8" width="60.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" t="str">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="27"/>
+      <c r="H2" t="str">
         <f>CONCATENATE("DROP TABLE IF EXISTS `",A1,"`;  ")</f>
         <v>DROP TABLE IF EXISTS `t_cPay_config`;  </v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="str">
+      <c r="G3" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" t="str">
         <f>CONCATENATE("CREATE TABLE `",A1,"` (  ")</f>
         <v xml:space="preserve">CREATE TABLE `t_cPay_config` (  </v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>32</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G4" s="3"/>
+      <c r="H4" t="str">
         <f>IF(C4="是",CONCATENATE("`",B4,"` varchar(",E4,") NOT NULL COMMENT `",A4,"',"),CONCATENATE("`",B4,"` varchar(",E4,")  NULL COMMENT `",A4,"',"))</f>
         <v>`facid` varchar(32) NOT NULL COMMENT `厂家编号',</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>32</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G5" t="str">
-        <f t="shared" ref="G5:G16" si="0">IF(C5="是",CONCATENATE("`",B5,"` varchar(",E5,") NOT NULL COMMENT `",A5,"',"),CONCATENATE("`",B5,"` varchar(",E5,")  NULL COMMENT `",A5,"',"))</f>
+      <c r="G5" s="3"/>
+      <c r="H5" t="str">
+        <f t="shared" ref="H5:H16" si="0">IF(C5="是",CONCATENATE("`",B5,"` varchar(",E5,") NOT NULL COMMENT `",A5,"',"),CONCATENATE("`",B5,"` varchar(",E5,")  NULL COMMENT `",A5,"',"))</f>
         <v>`appid` varchar(32) NOT NULL COMMENT `公众账号ID',</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>32</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>1230000109</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G6" s="3"/>
+      <c r="H6" t="str">
         <f t="shared" si="0"/>
         <v>`mch_id` varchar(32) NOT NULL COMMENT `商户号',</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>32</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" t="str">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" t="str">
         <f t="shared" si="0"/>
         <v>`mch_key` varchar(32) NOT NULL COMMENT `商户支付密钥',</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>32</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" t="str">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" t="str">
         <f t="shared" si="0"/>
         <v>`app_secert` varchar(32) NOT NULL COMMENT `公众帐号secert',</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" t="str">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" t="str">
         <f t="shared" si="0"/>
         <v>`ssl_cert_path` varchar(500) NOT NULL COMMENT `证书路径',</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>32</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" t="str">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" t="str">
         <f t="shared" si="0"/>
         <v>`ssl_cert_password` varchar(32) NOT NULL COMMENT `证书密码',</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>500</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" t="str">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" t="str">
         <f t="shared" si="0"/>
         <v>`notify_url` varchar(500) NOT NULL COMMENT `回调URL',</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>32</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" t="str">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v>`ip` varchar(32)  NULL COMMENT `商户系统后台机器IP',</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>500</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" t="str">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v>`redirect_url` varchar(500) NOT NULL COMMENT `公众号回调地址',</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" t="str">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" t="str">
         <f t="shared" si="0"/>
         <v>`create_time` varchar(0) NOT NULL COMMENT `创建时间',</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" t="str">
+      <c r="G15" s="3"/>
+      <c r="H15" t="str">
         <f t="shared" si="0"/>
         <v>`delete_flag` varchar(1) NOT NULL COMMENT `删除标识',</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="3">
         <v>32</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" t="str">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" t="str">
         <f t="shared" si="0"/>
         <v>`token` varchar(32)  NULL COMMENT `token',</v>
       </c>
@@ -1810,488 +2253,585 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2121AE-708A-4709-8D8C-662745BC57AE}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="14.75" style="13" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="32.125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="28.625" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="13"/>
+    <col min="1" max="4" width="14.75" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="57.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-    </row>
-    <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" t="str">
+        <f>CONCATENATE("DROP TABLE IF EXISTS `",A1,"`;  ")</f>
+        <v>DROP TABLE IF EXISTS `t_cPay_order`;  </v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="H3" t="str">
+        <f>CONCATENATE("CREATE TABLE `",A1,"` (  ")</f>
+        <v xml:space="preserve">CREATE TABLE `t_cPay_order` (  </v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E4" s="3">
         <v>32</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="H4" t="str">
+        <f>IF(C4="是",CONCATENATE("`",B4,"` varchar(",E4,") NOT NULL COMMENT `",A4,"',"),CONCATENATE("`",B4,"` varchar(",E4,")  NULL COMMENT `",A4,"',"))</f>
+        <v>`facid` varchar(32) NOT NULL COMMENT `厂家编号',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E5" s="3">
         <v>32</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="H5" t="str">
+        <f t="shared" ref="H5:H22" si="0">IF(C5="是",CONCATENATE("`",B5,"` varchar(",E5,") NOT NULL COMMENT `",A5,"',"),CONCATENATE("`",B5,"` varchar(",E5,")  NULL COMMENT `",A5,"',"))</f>
+        <v>`out_trade_no` varchar(32) NOT NULL COMMENT `商户订单号',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E6" s="3">
         <v>32</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="6" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>`transaction_id` varchar(32)  NULL COMMENT `微信订单号',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="3">
+        <v>128</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>`body` varchar(128)  NULL COMMENT `商品描述',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>`detail` varchar(6000)  NULL COMMENT `商品详情',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E9" s="3">
+        <v>127</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>`attach` varchar(127)  NULL COMMENT `附加数据',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="3">
+        <v>16</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>`fee_type` varchar(16)  NULL COMMENT `标价币种',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>88</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>`total_fee` varchar(0) NOT NULL COMMENT `标价金额',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="3">
+        <v>32</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>`goods_tag` varchar(32)  NULL COMMENT `订单优惠标记',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="3">
+        <v>16</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>`trade_type` varchar(16) NOT NULL COMMENT `交易类型',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="3">
+        <v>32</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>`product_id` varchar(32)  NULL COMMENT `商品ID',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="3">
         <v>128</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="F15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>`openid` varchar(128)  NULL COMMENT `用户标识',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="5">
-        <v>6000</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="E16" s="3">
+        <v>16</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>`return_code` varchar(16)  NULL COMMENT `返回状态码',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="5">
-        <v>127</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="E17" s="3">
+        <v>128</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>`return_msg` varchar(128)  NULL COMMENT `返回信息',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="3">
+        <v>16</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>`result_code` varchar(16)  NULL COMMENT `业务结果',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="3">
+        <v>32</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>`err_code` varchar(32)  NULL COMMENT `错误代码',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="3">
+        <v>128</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>`err_code_des` varchar(128)  NULL COMMENT `错误代码描述',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>`create_time` varchar(0) NOT NULL COMMENT `创建时间',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E9" s="5">
-        <v>16</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11">
-        <v>88</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" s="5">
-        <v>32</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="5">
-        <v>16</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="5">
-        <v>32</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" s="5">
-        <v>128</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="5">
-        <v>16</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" s="5">
-        <v>128</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="5">
-        <v>16</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E18" s="5">
-        <v>32</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19" s="5">
-        <v>128</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>`delete_flag` varchar(1) NOT NULL COMMENT `删除标识',</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A2:G2"/>
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{81A09549-5074-4343-A663-9968DB0203A7}"/>
-    <hyperlink ref="G7" r:id="rId2" display="https://pay.weixin.qq.com/wiki/doc/api/danpin.php?chapter=9_102&amp;index=2" xr:uid="{746933FA-A04E-4D49-B9F6-465FCD7D1C3C}"/>
-    <hyperlink ref="G4" r:id="rId3" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{2B46108C-4545-43EC-904F-476671490366}"/>
-    <hyperlink ref="G9" r:id="rId4" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{FA08947D-2877-48A0-9A28-63B50D4C29C8}"/>
-    <hyperlink ref="G10" r:id="rId5" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{399877A6-1AC6-4F7D-90D1-F0B7C55E7DDD}"/>
-    <hyperlink ref="G11" r:id="rId6" display="https://pay.weixin.qq.com/wiki/doc/api/tools/sp_coupon.php?chapter=12_7&amp;index=3" xr:uid="{AF970212-5BCC-403A-AADE-3CAFA2877F3F}"/>
+    <hyperlink ref="G7" r:id="rId1" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{81A09549-5074-4343-A663-9968DB0203A7}"/>
+    <hyperlink ref="G8" r:id="rId2" display="https://pay.weixin.qq.com/wiki/doc/api/danpin.php?chapter=9_102&amp;index=2" xr:uid="{746933FA-A04E-4D49-B9F6-465FCD7D1C3C}"/>
+    <hyperlink ref="G5" r:id="rId3" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{2B46108C-4545-43EC-904F-476671490366}"/>
+    <hyperlink ref="G10" r:id="rId4" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{FA08947D-2877-48A0-9A28-63B50D4C29C8}"/>
+    <hyperlink ref="G11" r:id="rId5" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{399877A6-1AC6-4F7D-90D1-F0B7C55E7DDD}"/>
+    <hyperlink ref="G12" r:id="rId6" display="https://pay.weixin.qq.com/wiki/doc/api/tools/sp_coupon.php?chapter=12_7&amp;index=3" xr:uid="{AF970212-5BCC-403A-AADE-3CAFA2877F3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -2301,27 +2841,28 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3964CE-C6DD-424E-AC1F-ABD6914C27D8}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="39.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.375" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="12.25" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="7.875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="29" style="22" customWidth="1"/>
+    <col min="7" max="7" width="27.375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="57.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -2330,759 +2871,907 @@
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
     </row>
-    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" t="str">
+        <f>CONCATENATE("DROP TABLE IF EXISTS `",A1,"`;  ")</f>
+        <v>DROP TABLE IF EXISTS `t_cPay_order_detail`;  </v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E3" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G3" s="18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="H3" t="str">
+        <f>CONCATENATE("CREATE TABLE `",A1,"` (  ")</f>
+        <v xml:space="preserve">CREATE TABLE `t_cPay_order_detail` (  </v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E4" s="19">
         <v>32</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F4" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" t="str">
+        <f>IF(C4="是",CONCATENATE("`",B4,"` varchar(",E4,") NOT NULL COMMENT `",A4,"',"),CONCATENATE("`",B4,"` varchar(",E4,")  NULL COMMENT `",A4,"',"))</f>
+        <v>`facid` varchar(32) NOT NULL COMMENT `厂家编号',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E5" s="20">
         <v>32</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G5" s="19" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="H5" t="str">
+        <f t="shared" ref="H5:H35" si="0">IF(C5="是",CONCATENATE("`",B5,"` varchar(",E5,") NOT NULL COMMENT `",A5,"',"),CONCATENATE("`",B5,"` varchar(",E5,")  NULL COMMENT `",A5,"',"))</f>
+        <v>`appid` varchar(32) NOT NULL COMMENT `公众账号ID',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D6" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E6" s="20">
         <v>32</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F6" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>`mch_id` varchar(32) NOT NULL COMMENT `商户号',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="20">
+        <v>32</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>`out_trade_no` varchar(32) NOT NULL COMMENT `商户订单号',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="20">
+        <v>32</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="21"/>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>`transaction_id` varchar(32)  NULL COMMENT `微信订单号',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="20">
+        <v>32</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>`device_info` varchar(32)  NULL COMMENT `设备号',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="20">
+        <v>32</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>`nonce_str` varchar(32) NOT NULL COMMENT `随机字符串',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="20">
+        <v>32</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>`sign` varchar(32) NOT NULL COMMENT `签名',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="20">
+        <v>32</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="21" t="s">
+      <c r="G12" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>`sign_type` varchar(32)  NULL COMMENT `签名类型',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D13" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E13" s="20">
+        <v>128</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>`body` varchar(128) NOT NULL COMMENT `商品描述',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="20">
+        <v>6000</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>`detail` varchar(6000)  NULL COMMENT `商品详情',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="20">
+        <v>127</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>`attach` varchar(127)  NULL COMMENT `附加数据',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="20">
+        <v>16</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>`fee_type` varchar(16)  NULL COMMENT `标价币种',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="20">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <v>88</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>`total_fee` varchar(0) NOT NULL COMMENT `标价金额',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="21" t="s">
+      <c r="C18" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="20">
+        <v>64</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>`spbill_create_ip` varchar(64) NOT NULL COMMENT `终端IP',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D19" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E19" s="20">
+        <v>14</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>`time_start` varchar(14)  NULL COMMENT `交易起始时间',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="20">
+        <v>14</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>`time_expire` varchar(14)  NULL COMMENT `交易结束时间',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="20">
         <v>32</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="21" t="s">
+      <c r="F21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>`goods_tag` varchar(32)  NULL COMMENT `订单优惠标记',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D22" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>`notify_url` varchar()  NULL COMMENT `通知地址',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="20">
+        <v>16</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>`trade_type` varchar(16) NOT NULL COMMENT `交易类型',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E24" s="20">
         <v>32</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="21" t="s">
+      <c r="F24" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>`product_id` varchar(32)  NULL COMMENT `商品ID',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E25" s="20">
         <v>32</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="F25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>`limit_pay` varchar(32)  NULL COMMENT `指定支付方式',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="20">
+        <v>128</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>`openid` varchar(128)  NULL COMMENT `用户标识',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="20">
+        <v>8</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>`receipt` varchar(8)  NULL COMMENT `电子发票入口开放标识',</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="20">
+        <v>256</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>`scene_info` varchar(256)  NULL COMMENT `场景信息',</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="19">
         <v>16</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="22">
+      <c r="F29" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>`return_code` varchar(16)  NULL COMMENT `返回状态码',</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="19">
+        <v>128</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>`return_msg` varchar(128)  NULL COMMENT `返回信息',</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="19">
+        <v>16</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>`result_code` varchar(16)  NULL COMMENT `业务结果',</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" s="19">
         <v>32</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="21" t="s">
+      <c r="F32" s="19"/>
+      <c r="G32" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>`err_code` varchar(32)  NULL COMMENT `错误代码',</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="22">
-        <v>32</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="22">
+      <c r="D33" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="19">
         <v>128</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="22">
-        <v>6000</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="21" t="s">
+      <c r="F33" s="19"/>
+      <c r="G33" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>`err_code_des` varchar(128)  NULL COMMENT `错误代码描述',</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="19">
+        <v>0</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>`create_time` varchar(0) NOT NULL COMMENT `创建时间',</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="22">
-        <v>127</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="22">
-        <v>16</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="22">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11">
-        <v>88</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" s="22">
-        <v>64</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18" s="22">
-        <v>14</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="22">
-        <v>14</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" s="22">
-        <v>32</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="22">
-        <v>16</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="22">
-        <v>32</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="22">
-        <v>32</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" s="22">
-        <v>128</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="22">
-        <v>8</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27" s="22">
-        <v>256</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E28" s="21">
-        <v>16</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" s="21">
-        <v>128</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="E30" s="21">
-        <v>16</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" s="21">
-        <v>32</v>
-      </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="E32" s="21">
-        <v>128</v>
-      </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="21">
-        <v>0</v>
-      </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-    </row>
-    <row r="34" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E34" s="21">
+      <c r="E35" s="19">
         <v>1</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>`delete_flag` varchar(1) NOT NULL COMMENT `删除标识',</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A2:G2"/>
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_3" xr:uid="{0CE5CA9D-82E8-423A-9530-A1F78BF131C8}"/>
-    <hyperlink ref="G10" r:id="rId2" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_3" xr:uid="{79852D0D-660A-46D0-9F40-89A2D7B95A87}"/>
-    <hyperlink ref="G12" r:id="rId3" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{6C610D9F-CC4F-4FFA-982F-964C496B7B13}"/>
-    <hyperlink ref="G13" r:id="rId4" display="https://pay.weixin.qq.com/wiki/doc/api/danpin.php?chapter=9_102&amp;index=2" xr:uid="{BA0CED2F-A0F3-43C9-9D66-AB73907F4391}"/>
-    <hyperlink ref="G6" r:id="rId5" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{9B629084-4F9A-49DC-85E4-8C82E056E263}"/>
-    <hyperlink ref="G15" r:id="rId6" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{9C0E2E28-C8D5-40F1-A4FD-EADBE8DA0E8A}"/>
-    <hyperlink ref="G16" r:id="rId7" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{EBC47B1E-8318-4051-B478-48880C0DDD89}"/>
-    <hyperlink ref="G18" r:id="rId8" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{0B4118DE-A302-47E5-AE2D-75D119B91720}"/>
-    <hyperlink ref="G19" r:id="rId9" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{710D81F0-23CA-4D34-A00B-C597163C70BA}"/>
-    <hyperlink ref="G20" r:id="rId10" display="https://pay.weixin.qq.com/wiki/doc/api/tools/sp_coupon.php?chapter=12_7&amp;index=3" xr:uid="{FBA67FFC-ABA2-4DD6-B477-261E8B44DEE8}"/>
+    <hyperlink ref="G10" r:id="rId1" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_3" xr:uid="{0CE5CA9D-82E8-423A-9530-A1F78BF131C8}"/>
+    <hyperlink ref="G11" r:id="rId2" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_3" xr:uid="{79852D0D-660A-46D0-9F40-89A2D7B95A87}"/>
+    <hyperlink ref="G13" r:id="rId3" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{6C610D9F-CC4F-4FFA-982F-964C496B7B13}"/>
+    <hyperlink ref="G14" r:id="rId4" display="https://pay.weixin.qq.com/wiki/doc/api/danpin.php?chapter=9_102&amp;index=2" xr:uid="{BA0CED2F-A0F3-43C9-9D66-AB73907F4391}"/>
+    <hyperlink ref="G7" r:id="rId5" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{9B629084-4F9A-49DC-85E4-8C82E056E263}"/>
+    <hyperlink ref="G16" r:id="rId6" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{9C0E2E28-C8D5-40F1-A4FD-EADBE8DA0E8A}"/>
+    <hyperlink ref="G17" r:id="rId7" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{EBC47B1E-8318-4051-B478-48880C0DDD89}"/>
+    <hyperlink ref="G19" r:id="rId8" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{0B4118DE-A302-47E5-AE2D-75D119B91720}"/>
+    <hyperlink ref="G20" r:id="rId9" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{710D81F0-23CA-4D34-A00B-C597163C70BA}"/>
+    <hyperlink ref="G21" r:id="rId10" display="https://pay.weixin.qq.com/wiki/doc/api/tools/sp_coupon.php?chapter=12_7&amp;index=3" xr:uid="{FBA67FFC-ABA2-4DD6-B477-261E8B44DEE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>

--- a/lib/DAL/cPay.xlsx
+++ b/lib/DAL/cPay.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\4learning-space\2、typescript学习\practice03\cpay\lib\DAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\工作\workpace\web\npm-packages\cpay\lib\DAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9980BD3B-EF25-4563-A870-3216FFCD12BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{CA716A67-13CD-42D9-AE3B-1DECD543BDA6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="t_cPay_order" sheetId="3" r:id="rId3"/>
     <sheet name="t_cPay_order_detail" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -927,7 +926,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1151,6 +1150,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1160,17 +1168,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1486,17 +1485,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD433A89-1CC8-4B91-BE5A-74EF960ACD4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A72"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="30"/>
+    <col min="1" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -1575,107 +1574,107 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="26" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="26" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="26" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="26" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="26" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="26" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="26" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="26" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="26" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="26" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="26" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="26" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="26" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="26" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="26" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="26" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="26" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="26" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="26" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="26" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="26" t="s">
         <v>209</v>
       </c>
     </row>
@@ -1857,12 +1856,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC6D3D5-20F0-4058-8BF6-1B02F17BA069}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H16"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1878,26 +1877,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="24"/>
       <c r="H2" t="str">
         <f>CONCATENATE("DROP TABLE IF EXISTS `",A1,"`;  ")</f>
         <v>DROP TABLE IF EXISTS `t_cPay_config`;  </v>
@@ -1922,7 +1921,7 @@
       <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="25" t="s">
         <v>171</v>
       </c>
       <c r="H3" t="str">
@@ -1951,8 +1950,8 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" t="str">
-        <f>IF(C4="是",CONCATENATE("`",B4,"` varchar(",E4,") NOT NULL COMMENT `",A4,"',"),CONCATENATE("`",B4,"` varchar(",E4,")  NULL COMMENT `",A4,"',"))</f>
-        <v>`facid` varchar(32) NOT NULL COMMENT `厂家编号',</v>
+        <f>IF(C4="是",CONCATENATE("`",B4,"` varchar(",E4,") NOT NULL COMMENT '",A4,"',"),CONCATENATE("`",B4,"` varchar(",E4,")  NULL COMMENT '",A4,"',"))</f>
+        <v>`facid` varchar(32) NOT NULL COMMENT '厂家编号',</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1976,8 +1975,8 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" t="str">
-        <f t="shared" ref="H5:H16" si="0">IF(C5="是",CONCATENATE("`",B5,"` varchar(",E5,") NOT NULL COMMENT `",A5,"',"),CONCATENATE("`",B5,"` varchar(",E5,")  NULL COMMENT `",A5,"',"))</f>
-        <v>`appid` varchar(32) NOT NULL COMMENT `公众账号ID',</v>
+        <f t="shared" ref="H5:H16" si="0">IF(C5="是",CONCATENATE("`",B5,"` varchar(",E5,") NOT NULL COMMENT '",A5,"',"),CONCATENATE("`",B5,"` varchar(",E5,")  NULL COMMENT '",A5,"',"))</f>
+        <v>`appid` varchar(32) NOT NULL COMMENT '公众账号ID',</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2002,7 +2001,7 @@
       <c r="G6" s="3"/>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>`mch_id` varchar(32) NOT NULL COMMENT `商户号',</v>
+        <v>`mch_id` varchar(32) NOT NULL COMMENT '商户号',</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2025,7 +2024,7 @@
       <c r="G7" s="3"/>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>`mch_key` varchar(32) NOT NULL COMMENT `商户支付密钥',</v>
+        <v>`mch_key` varchar(32) NOT NULL COMMENT '商户支付密钥',</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2048,7 +2047,7 @@
       <c r="G8" s="3"/>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>`app_secert` varchar(32) NOT NULL COMMENT `公众帐号secert',</v>
+        <v>`app_secert` varchar(32) NOT NULL COMMENT '公众帐号secert',</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2071,7 +2070,7 @@
       <c r="G9" s="3"/>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>`ssl_cert_path` varchar(500) NOT NULL COMMENT `证书路径',</v>
+        <v>`ssl_cert_path` varchar(500) NOT NULL COMMENT '证书路径',</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2094,7 +2093,7 @@
       <c r="G10" s="3"/>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>`ssl_cert_password` varchar(32) NOT NULL COMMENT `证书密码',</v>
+        <v>`ssl_cert_password` varchar(32) NOT NULL COMMENT '证书密码',</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2117,7 +2116,7 @@
       <c r="G11" s="3"/>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>`notify_url` varchar(500) NOT NULL COMMENT `回调URL',</v>
+        <v>`notify_url` varchar(500) NOT NULL COMMENT '回调URL',</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2140,7 +2139,7 @@
       <c r="G12" s="3"/>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>`ip` varchar(32)  NULL COMMENT `商户系统后台机器IP',</v>
+        <v>`ip` varchar(32)  NULL COMMENT '商户系统后台机器IP',</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2163,7 +2162,7 @@
       <c r="G13" s="3"/>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>`redirect_url` varchar(500) NOT NULL COMMENT `公众号回调地址',</v>
+        <v>`redirect_url` varchar(500) NOT NULL COMMENT '公众号回调地址',</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2188,7 +2187,7 @@
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>`create_time` varchar(0) NOT NULL COMMENT `创建时间',</v>
+        <v>`create_time` varchar(0) NOT NULL COMMENT '创建时间',</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -2213,7 +2212,7 @@
       <c r="G15" s="3"/>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
-        <v>`delete_flag` varchar(1) NOT NULL COMMENT `删除标识',</v>
+        <v>`delete_flag` varchar(1) NOT NULL COMMENT '删除标识',</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2236,7 +2235,7 @@
       <c r="G16" s="3"/>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>`token` varchar(32)  NULL COMMENT `token',</v>
+        <v>`token` varchar(32)  NULL COMMENT 'token',</v>
       </c>
     </row>
   </sheetData>
@@ -2251,12 +2250,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2121AE-708A-4709-8D8C-662745BC57AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2270,26 +2269,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" t="str">
         <f>CONCATENATE("DROP TABLE IF EXISTS `",A1,"`;  ")</f>
         <v>DROP TABLE IF EXISTS `t_cPay_order`;  </v>
@@ -2345,8 +2344,8 @@
         <v>61</v>
       </c>
       <c r="H4" t="str">
-        <f>IF(C4="是",CONCATENATE("`",B4,"` varchar(",E4,") NOT NULL COMMENT `",A4,"',"),CONCATENATE("`",B4,"` varchar(",E4,")  NULL COMMENT `",A4,"',"))</f>
-        <v>`facid` varchar(32) NOT NULL COMMENT `厂家编号',</v>
+        <f>IF(C4="是",CONCATENATE("`",B4,"` varchar(",E4,") NOT NULL COMMENT '",A4,"',"),CONCATENATE("`",B4,"` varchar(",E4,")  NULL COMMENT '",A4,"',"))</f>
+        <v>`facid` varchar(32) NOT NULL COMMENT '厂家编号',</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2372,8 +2371,8 @@
         <v>79</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" ref="H5:H22" si="0">IF(C5="是",CONCATENATE("`",B5,"` varchar(",E5,") NOT NULL COMMENT `",A5,"',"),CONCATENATE("`",B5,"` varchar(",E5,")  NULL COMMENT `",A5,"',"))</f>
-        <v>`out_trade_no` varchar(32) NOT NULL COMMENT `商户订单号',</v>
+        <f t="shared" ref="H5:H22" si="0">IF(C5="是",CONCATENATE("`",B5,"` varchar(",E5,") NOT NULL COMMENT '",A5,"',"),CONCATENATE("`",B5,"` varchar(",E5,")  NULL COMMENT '",A5,"',"))</f>
+        <v>`out_trade_no` varchar(32) NOT NULL COMMENT '商户订单号',</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2398,7 +2397,7 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>`transaction_id` varchar(32)  NULL COMMENT `微信订单号',</v>
+        <v>`transaction_id` varchar(32)  NULL COMMENT '微信订单号',</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2425,7 +2424,7 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>`body` varchar(128)  NULL COMMENT `商品描述',</v>
+        <v>`body` varchar(128)  NULL COMMENT '商品描述',</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2450,7 +2449,7 @@
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>`detail` varchar(6000)  NULL COMMENT `商品详情',</v>
+        <v>`detail` varchar(6000)  NULL COMMENT '商品详情',</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2477,7 +2476,7 @@
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>`attach` varchar(127)  NULL COMMENT `附加数据',</v>
+        <v>`attach` varchar(127)  NULL COMMENT '附加数据',</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2504,7 +2503,7 @@
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>`fee_type` varchar(16)  NULL COMMENT `标价币种',</v>
+        <v>`fee_type` varchar(16)  NULL COMMENT '标价币种',</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2531,7 +2530,7 @@
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>`total_fee` varchar(0) NOT NULL COMMENT `标价金额',</v>
+        <v>`total_fee` varchar(0) NOT NULL COMMENT '标价金额',</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2558,7 +2557,7 @@
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>`goods_tag` varchar(32)  NULL COMMENT `订单优惠标记',</v>
+        <v>`goods_tag` varchar(32)  NULL COMMENT '订单优惠标记',</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2585,7 +2584,7 @@
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>`trade_type` varchar(16) NOT NULL COMMENT `交易类型',</v>
+        <v>`trade_type` varchar(16) NOT NULL COMMENT '交易类型',</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2612,7 +2611,7 @@
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>`product_id` varchar(32)  NULL COMMENT `商品ID',</v>
+        <v>`product_id` varchar(32)  NULL COMMENT '商品ID',</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2639,7 +2638,7 @@
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
-        <v>`openid` varchar(128)  NULL COMMENT `用户标识',</v>
+        <v>`openid` varchar(128)  NULL COMMENT '用户标识',</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2666,7 +2665,7 @@
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>`return_code` varchar(16)  NULL COMMENT `返回状态码',</v>
+        <v>`return_code` varchar(16)  NULL COMMENT '返回状态码',</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2693,7 +2692,7 @@
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
-        <v>`return_msg` varchar(128)  NULL COMMENT `返回信息',</v>
+        <v>`return_msg` varchar(128)  NULL COMMENT '返回信息',</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2720,7 +2719,7 @@
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
-        <v>`result_code` varchar(16)  NULL COMMENT `业务结果',</v>
+        <v>`result_code` varchar(16)  NULL COMMENT '业务结果',</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2745,7 +2744,7 @@
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
-        <v>`err_code` varchar(32)  NULL COMMENT `错误代码',</v>
+        <v>`err_code` varchar(32)  NULL COMMENT '错误代码',</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2770,7 +2769,7 @@
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
-        <v>`err_code_des` varchar(128)  NULL COMMENT `错误代码描述',</v>
+        <v>`err_code_des` varchar(128)  NULL COMMENT '错误代码描述',</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2793,7 +2792,7 @@
       <c r="G21" s="13"/>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
-        <v>`create_time` varchar(0) NOT NULL COMMENT `创建时间',</v>
+        <v>`create_time` varchar(0) NOT NULL COMMENT '创建时间',</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2816,7 +2815,7 @@
       <c r="G22" s="13"/>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
-        <v>`delete_flag` varchar(1) NOT NULL COMMENT `删除标识',</v>
+        <v>`delete_flag` varchar(1) NOT NULL COMMENT '删除标识',</v>
       </c>
     </row>
   </sheetData>
@@ -2826,12 +2825,12 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G7" r:id="rId1" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{81A09549-5074-4343-A663-9968DB0203A7}"/>
-    <hyperlink ref="G8" r:id="rId2" display="https://pay.weixin.qq.com/wiki/doc/api/danpin.php?chapter=9_102&amp;index=2" xr:uid="{746933FA-A04E-4D49-B9F6-465FCD7D1C3C}"/>
-    <hyperlink ref="G5" r:id="rId3" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{2B46108C-4545-43EC-904F-476671490366}"/>
-    <hyperlink ref="G10" r:id="rId4" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{FA08947D-2877-48A0-9A28-63B50D4C29C8}"/>
-    <hyperlink ref="G11" r:id="rId5" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{399877A6-1AC6-4F7D-90D1-F0B7C55E7DDD}"/>
-    <hyperlink ref="G12" r:id="rId6" display="https://pay.weixin.qq.com/wiki/doc/api/tools/sp_coupon.php?chapter=12_7&amp;index=3" xr:uid="{AF970212-5BCC-403A-AADE-3CAFA2877F3F}"/>
+    <hyperlink ref="G7" r:id="rId1" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2"/>
+    <hyperlink ref="G8" r:id="rId2" display="https://pay.weixin.qq.com/wiki/doc/api/danpin.php?chapter=9_102&amp;index=2"/>
+    <hyperlink ref="G5" r:id="rId3" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2"/>
+    <hyperlink ref="G10" r:id="rId4" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2"/>
+    <hyperlink ref="G11" r:id="rId5" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2"/>
+    <hyperlink ref="G12" r:id="rId6" display="https://pay.weixin.qq.com/wiki/doc/api/tools/sp_coupon.php?chapter=12_7&amp;index=3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -2839,12 +2838,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3964CE-C6DD-424E-AC1F-ABD6914C27D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H35"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2861,26 +2860,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" t="str">
         <f>CONCATENATE("DROP TABLE IF EXISTS `",A1,"`;  ")</f>
         <v>DROP TABLE IF EXISTS `t_cPay_order_detail`;  </v>
@@ -2934,8 +2933,8 @@
       </c>
       <c r="G4" s="19"/>
       <c r="H4" t="str">
-        <f>IF(C4="是",CONCATENATE("`",B4,"` varchar(",E4,") NOT NULL COMMENT `",A4,"',"),CONCATENATE("`",B4,"` varchar(",E4,")  NULL COMMENT `",A4,"',"))</f>
-        <v>`facid` varchar(32) NOT NULL COMMENT `厂家编号',</v>
+        <f>IF(C4="是",CONCATENATE("`",B4,"` varchar(",E4,") NOT NULL COMMENT '",A4,"',"),CONCATENATE("`",B4,"` varchar(",E4,")  NULL COMMENT '",A4,"',"))</f>
+        <v>`facid` varchar(32) NOT NULL COMMENT '厂家编号',</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2961,8 +2960,8 @@
         <v>61</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" ref="H5:H35" si="0">IF(C5="是",CONCATENATE("`",B5,"` varchar(",E5,") NOT NULL COMMENT `",A5,"',"),CONCATENATE("`",B5,"` varchar(",E5,")  NULL COMMENT `",A5,"',"))</f>
-        <v>`appid` varchar(32) NOT NULL COMMENT `公众账号ID',</v>
+        <f t="shared" ref="H5:H35" si="0">IF(C5="是",CONCATENATE("`",B5,"` varchar(",E5,") NOT NULL COMMENT '",A5,"',"),CONCATENATE("`",B5,"` varchar(",E5,")  NULL COMMENT '",A5,"',"))</f>
+        <v>`appid` varchar(32) NOT NULL COMMENT '公众账号ID',</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2989,7 +2988,7 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>`mch_id` varchar(32) NOT NULL COMMENT `商户号',</v>
+        <v>`mch_id` varchar(32) NOT NULL COMMENT '商户号',</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3016,7 +3015,7 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>`out_trade_no` varchar(32) NOT NULL COMMENT `商户订单号',</v>
+        <v>`out_trade_no` varchar(32) NOT NULL COMMENT '商户订单号',</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3039,7 +3038,7 @@
       <c r="G8" s="21"/>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>`transaction_id` varchar(32)  NULL COMMENT `微信订单号',</v>
+        <v>`transaction_id` varchar(32)  NULL COMMENT '微信订单号',</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3066,7 +3065,7 @@
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>`device_info` varchar(32)  NULL COMMENT `设备号',</v>
+        <v>`device_info` varchar(32)  NULL COMMENT '设备号',</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3093,7 +3092,7 @@
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>`nonce_str` varchar(32) NOT NULL COMMENT `随机字符串',</v>
+        <v>`nonce_str` varchar(32) NOT NULL COMMENT '随机字符串',</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3120,7 +3119,7 @@
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>`sign` varchar(32) NOT NULL COMMENT `签名',</v>
+        <v>`sign` varchar(32) NOT NULL COMMENT '签名',</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3147,7 +3146,7 @@
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>`sign_type` varchar(32)  NULL COMMENT `签名类型',</v>
+        <v>`sign_type` varchar(32)  NULL COMMENT '签名类型',</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3174,7 +3173,7 @@
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>`body` varchar(128) NOT NULL COMMENT `商品描述',</v>
+        <v>`body` varchar(128) NOT NULL COMMENT '商品描述',</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3199,7 +3198,7 @@
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>`detail` varchar(6000)  NULL COMMENT `商品详情',</v>
+        <v>`detail` varchar(6000)  NULL COMMENT '商品详情',</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3226,7 +3225,7 @@
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
-        <v>`attach` varchar(127)  NULL COMMENT `附加数据',</v>
+        <v>`attach` varchar(127)  NULL COMMENT '附加数据',</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3253,7 +3252,7 @@
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>`fee_type` varchar(16)  NULL COMMENT `标价币种',</v>
+        <v>`fee_type` varchar(16)  NULL COMMENT '标价币种',</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3280,7 +3279,7 @@
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
-        <v>`total_fee` varchar(0) NOT NULL COMMENT `标价金额',</v>
+        <v>`total_fee` varchar(0) NOT NULL COMMENT '标价金额',</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3307,7 +3306,7 @@
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
-        <v>`spbill_create_ip` varchar(64) NOT NULL COMMENT `终端IP',</v>
+        <v>`spbill_create_ip` varchar(64) NOT NULL COMMENT '终端IP',</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3334,7 +3333,7 @@
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
-        <v>`time_start` varchar(14)  NULL COMMENT `交易起始时间',</v>
+        <v>`time_start` varchar(14)  NULL COMMENT '交易起始时间',</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3361,7 +3360,7 @@
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
-        <v>`time_expire` varchar(14)  NULL COMMENT `交易结束时间',</v>
+        <v>`time_expire` varchar(14)  NULL COMMENT '交易结束时间',</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3388,7 +3387,7 @@
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
-        <v>`goods_tag` varchar(32)  NULL COMMENT `订单优惠标记',</v>
+        <v>`goods_tag` varchar(32)  NULL COMMENT '订单优惠标记',</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3413,7 +3412,7 @@
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
-        <v>`notify_url` varchar()  NULL COMMENT `通知地址',</v>
+        <v>`notify_url` varchar()  NULL COMMENT '通知地址',</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3440,7 +3439,7 @@
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
-        <v>`trade_type` varchar(16) NOT NULL COMMENT `交易类型',</v>
+        <v>`trade_type` varchar(16) NOT NULL COMMENT '交易类型',</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3467,7 +3466,7 @@
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
-        <v>`product_id` varchar(32)  NULL COMMENT `商品ID',</v>
+        <v>`product_id` varchar(32)  NULL COMMENT '商品ID',</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3494,7 +3493,7 @@
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
-        <v>`limit_pay` varchar(32)  NULL COMMENT `指定支付方式',</v>
+        <v>`limit_pay` varchar(32)  NULL COMMENT '指定支付方式',</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3521,7 +3520,7 @@
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
-        <v>`openid` varchar(128)  NULL COMMENT `用户标识',</v>
+        <v>`openid` varchar(128)  NULL COMMENT '用户标识',</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3548,7 +3547,7 @@
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
-        <v>`receipt` varchar(8)  NULL COMMENT `电子发票入口开放标识',</v>
+        <v>`receipt` varchar(8)  NULL COMMENT '电子发票入口开放标识',</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3575,7 +3574,7 @@
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
-        <v>`scene_info` varchar(256)  NULL COMMENT `场景信息',</v>
+        <v>`scene_info` varchar(256)  NULL COMMENT '场景信息',</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3602,7 +3601,7 @@
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
-        <v>`return_code` varchar(16)  NULL COMMENT `返回状态码',</v>
+        <v>`return_code` varchar(16)  NULL COMMENT '返回状态码',</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3629,7 +3628,7 @@
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
-        <v>`return_msg` varchar(128)  NULL COMMENT `返回信息',</v>
+        <v>`return_msg` varchar(128)  NULL COMMENT '返回信息',</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3656,7 +3655,7 @@
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
-        <v>`result_code` varchar(16)  NULL COMMENT `业务结果',</v>
+        <v>`result_code` varchar(16)  NULL COMMENT '业务结果',</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3681,7 +3680,7 @@
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
-        <v>`err_code` varchar(32)  NULL COMMENT `错误代码',</v>
+        <v>`err_code` varchar(32)  NULL COMMENT '错误代码',</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3706,7 +3705,7 @@
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
-        <v>`err_code_des` varchar(128)  NULL COMMENT `错误代码描述',</v>
+        <v>`err_code_des` varchar(128)  NULL COMMENT '错误代码描述',</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3729,7 +3728,7 @@
       <c r="G34" s="19"/>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
-        <v>`create_time` varchar(0) NOT NULL COMMENT `创建时间',</v>
+        <v>`create_time` varchar(0) NOT NULL COMMENT '创建时间',</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3752,7 +3751,7 @@
       <c r="G35" s="19"/>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
-        <v>`delete_flag` varchar(1) NOT NULL COMMENT `删除标识',</v>
+        <v>`delete_flag` varchar(1) NOT NULL COMMENT '删除标识',</v>
       </c>
     </row>
   </sheetData>
@@ -3762,16 +3761,16 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G10" r:id="rId1" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_3" xr:uid="{0CE5CA9D-82E8-423A-9530-A1F78BF131C8}"/>
-    <hyperlink ref="G11" r:id="rId2" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_3" xr:uid="{79852D0D-660A-46D0-9F40-89A2D7B95A87}"/>
-    <hyperlink ref="G13" r:id="rId3" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{6C610D9F-CC4F-4FFA-982F-964C496B7B13}"/>
-    <hyperlink ref="G14" r:id="rId4" display="https://pay.weixin.qq.com/wiki/doc/api/danpin.php?chapter=9_102&amp;index=2" xr:uid="{BA0CED2F-A0F3-43C9-9D66-AB73907F4391}"/>
-    <hyperlink ref="G7" r:id="rId5" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{9B629084-4F9A-49DC-85E4-8C82E056E263}"/>
-    <hyperlink ref="G16" r:id="rId6" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{9C0E2E28-C8D5-40F1-A4FD-EADBE8DA0E8A}"/>
-    <hyperlink ref="G17" r:id="rId7" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{EBC47B1E-8318-4051-B478-48880C0DDD89}"/>
-    <hyperlink ref="G19" r:id="rId8" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{0B4118DE-A302-47E5-AE2D-75D119B91720}"/>
-    <hyperlink ref="G20" r:id="rId9" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2" xr:uid="{710D81F0-23CA-4D34-A00B-C597163C70BA}"/>
-    <hyperlink ref="G21" r:id="rId10" display="https://pay.weixin.qq.com/wiki/doc/api/tools/sp_coupon.php?chapter=12_7&amp;index=3" xr:uid="{FBA67FFC-ABA2-4DD6-B477-261E8B44DEE8}"/>
+    <hyperlink ref="G10" r:id="rId1" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_3"/>
+    <hyperlink ref="G11" r:id="rId2" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_3"/>
+    <hyperlink ref="G13" r:id="rId3" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2"/>
+    <hyperlink ref="G14" r:id="rId4" display="https://pay.weixin.qq.com/wiki/doc/api/danpin.php?chapter=9_102&amp;index=2"/>
+    <hyperlink ref="G7" r:id="rId5" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2"/>
+    <hyperlink ref="G16" r:id="rId6" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2"/>
+    <hyperlink ref="G17" r:id="rId7" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2"/>
+    <hyperlink ref="G19" r:id="rId8" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2"/>
+    <hyperlink ref="G20" r:id="rId9" display="https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2"/>
+    <hyperlink ref="G21" r:id="rId10" display="https://pay.weixin.qq.com/wiki/doc/api/tools/sp_coupon.php?chapter=12_7&amp;index=3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>

--- a/lib/DAL/cPay.xlsx
+++ b/lib/DAL/cPay.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="t_cPay_config" sheetId="4" r:id="rId2"/>
     <sheet name="t_cPay_order" sheetId="3" r:id="rId3"/>
     <sheet name="t_cPay_order_detail" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="224">
   <si>
     <t>必填</t>
   </si>
@@ -2842,8 +2843,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B4:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3775,4 +3776,293 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="str">
+        <f>CONCATENATE(A1,"=:",A1,",")</f>
+        <v>facid=:facid,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B30" si="0">CONCATENATE(A2,"=:",A2,",")</f>
+        <v>appid=:appid,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>mch_id=:mch_id,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>out_trade_no=:out_trade_no,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>transaction_id=:transaction_id,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>device_info=:device_info,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>nonce_str=:nonce_str,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>sign=:sign,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>sign_type=:sign_type,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>body=:body,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>detail=:detail,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>attach=:attach,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>fee_type=:fee_type,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>total_fee=:total_fee,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>spbill_create_ip=:spbill_create_ip,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>time_start=:time_start,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>time_expire=:time_expire,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>goods_tag=:goods_tag,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>notify_url=:notify_url,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>trade_type=:trade_type,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>product_id=:product_id,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>limit_pay=:limit_pay,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>openid=:openid,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>receipt=:receipt,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>scene_info=:scene_info,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>return_code=:return_code,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>return_msg=:return_msg,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>result_code=:result_code,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>err_code=:err_code,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>err_code_des=:err_code_des,</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>